--- a/DB/db.xlsx
+++ b/DB/db.xlsx
@@ -660,23 +660,59 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1982 BH 275</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Tracastel (rue) 14, 16 ; Tout-Petits (traverse des)</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Architecture</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Topographie, niveau de soubassement</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Légende du plan</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Etat</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Prescriptions archéo.</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Immeuble traversant de trois étages, un étage en retrait avec terrasse coté Barri (vue sur mer) et deux étages de soubassement,</t>
+        </is>
+      </c>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
     </row>
